--- a/SmplResults/results_train.xlsx
+++ b/SmplResults/results_train.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21727"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\Dataset\PeopleFlowData_nightley\SampleProgram_20190613\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\Dataset\PeopleFlowData_nightley\SampleProgram_20190629\SmplResults\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B86DDB2D-4C72-4F22-ACD3-CC87862F57F7}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A41ABE77-CD32-4296-BE27-2192886D3F1B}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -844,7 +844,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -856,7 +856,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>0.496</c:v>
+                  <c:v>0.504</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -903,13 +903,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>0.49825714285714201</c:v>
+                  <c:v>0.50174285714285705</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.80020000000000002</c:v>
+                  <c:v>0.19979999999999901</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.95185714285714196</c:v>
+                  <c:v>4.8142857142857098E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -921,13 +921,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>0.374</c:v>
+                  <c:v>0.626</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.216</c:v>
+                  <c:v>0.78400000000000003</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>5.8999999999999997E-2</c:v>
+                  <c:v>0.94099999999999995</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -974,22 +974,22 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>0.29367977756140801</c:v>
+                  <c:v>0.70632022243859205</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.645608873536061</c:v>
+                  <c:v>0.354391126463938</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.85887721955685004</c:v>
+                  <c:v>0.14112278044314899</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.655319197004952</c:v>
+                  <c:v>0.344680802995047</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.82691098873935098</c:v>
+                  <c:v>0.17308901126064799</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.93093914678132395</c:v>
+                  <c:v>6.9060853218675805E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1001,22 +1001,22 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>0.622</c:v>
+                  <c:v>0.378</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.48299999999999998</c:v>
+                  <c:v>0.51700000000000002</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.26800000000000002</c:v>
+                  <c:v>0.73199999999999998</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.33200000000000002</c:v>
+                  <c:v>0.68399999999999905</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.19700000000000001</c:v>
+                  <c:v>0.79800000000000004</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>8.4000000000000005E-2</c:v>
+                  <c:v>0.91600000000000004</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1063,31 +1063,31 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>0.99126080857444998</c:v>
+                  <c:v>8.7391914255493496E-3</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.99119899310833604</c:v>
+                  <c:v>8.8010068916630699E-3</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.98964829992144299</c:v>
+                  <c:v>1.0351700078556601E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.98562553384748997</c:v>
+                  <c:v>1.43744661525091E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.97281935663048502</c:v>
+                  <c:v>2.7180643369514399E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.94185442398078401</c:v>
+                  <c:v>5.81455760192158E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.86617820054398897</c:v>
+                  <c:v>0.13382179945601</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.71078874193618002</c:v>
+                  <c:v>0.28921125806381898</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.49809943541726098</c:v>
+                  <c:v>0.50190056458273802</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1099,31 +1099,31 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1E-3</c:v>
+                  <c:v>0.999</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>6.0000000000000001E-3</c:v>
+                  <c:v>0.99399999999999999</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4.0000000000000001E-3</c:v>
+                  <c:v>0.996</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.01</c:v>
+                  <c:v>0.99</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>4.8000000000000001E-2</c:v>
+                  <c:v>0.95199999999999996</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.17299999999999999</c:v>
+                  <c:v>0.82699999999999996</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.33800000000000002</c:v>
+                  <c:v>0.66199999999999903</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1170,31 +1170,31 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>0.99704605763526999</c:v>
+                  <c:v>2.9539423647296698E-3</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.993689722905711</c:v>
+                  <c:v>6.3102770942886598E-3</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.88101143836791596</c:v>
+                  <c:v>0.118988561632083</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.71616823804259699</c:v>
+                  <c:v>0.28383176195740201</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.57424569828806304</c:v>
+                  <c:v>0.42575430171193601</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.461807126868019</c:v>
+                  <c:v>0.53819287313198005</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.37909053546531402</c:v>
+                  <c:v>0.62090946453468499</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.31640669240296498</c:v>
+                  <c:v>0.68359330759703396</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.26929979736021997</c:v>
+                  <c:v>0.73070020263977897</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1206,31 +1206,31 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>1E-3</c:v>
+                  <c:v>0.999</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1E-3</c:v>
+                  <c:v>0.999</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.4E-2</c:v>
+                  <c:v>0.97599999999999998</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>6.7000000000000004E-2</c:v>
+                  <c:v>0.93300000000000005</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.14499999999999999</c:v>
+                  <c:v>0.85499999999999998</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.224</c:v>
+                  <c:v>0.77600000000000002</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.28299999999999997</c:v>
+                  <c:v>0.71699999999999997</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.32800000000000001</c:v>
+                  <c:v>0.67199999999999904</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.34899999999999998</c:v>
+                  <c:v>0.65100000000000002</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1277,7 +1277,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>0.98330293317658202</c:v>
+                  <c:v>1.6697066823417601E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1289,7 +1289,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1443,6 +1443,8 @@
         <c:axId val="422441512"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="1"/>
+          <c:min val="0.5"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -1723,7 +1725,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1735,7 +1737,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>0.39742405955139298</c:v>
+                  <c:v>0.58894014216675905</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1782,13 +1784,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>0.49825714285714201</c:v>
+                  <c:v>0.50174285714285705</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.80020000000000002</c:v>
+                  <c:v>0.19979999999999901</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.95185714285714196</c:v>
+                  <c:v>4.8142857142857098E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1800,13 +1802,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>0.218507756710343</c:v>
+                  <c:v>0.78306249350291102</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.12840991085682499</c:v>
+                  <c:v>0.86822139692942502</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.115979218394596</c:v>
+                  <c:v>0.88463326316553403</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1853,22 +1855,22 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>0.29367977756140801</c:v>
+                  <c:v>0.70632022243859205</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.645608873536061</c:v>
+                  <c:v>0.354391126463938</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.85887721955685004</c:v>
+                  <c:v>0.14112278044314899</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.655319197004952</c:v>
+                  <c:v>0.344680802995047</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.82691098873935098</c:v>
+                  <c:v>0.17308901126064799</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.93093914678132395</c:v>
+                  <c:v>6.9060853218675805E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1880,22 +1882,22 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>0.403864413879158</c:v>
+                  <c:v>0.58979009985358899</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.21795939459765801</c:v>
+                  <c:v>0.78500772397600305</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.13049057527793601</c:v>
+                  <c:v>0.86815566388038801</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.156258589592773</c:v>
+                  <c:v>0.84580447084684895</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.11493923554978699</c:v>
+                  <c:v>0.88615487973517204</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.107875538485075</c:v>
+                  <c:v>0.89098058228557697</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1942,31 +1944,31 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>0.99126080857444998</c:v>
+                  <c:v>8.7391914255493496E-3</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.99119899310833604</c:v>
+                  <c:v>8.8010068916630699E-3</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.98964829992144299</c:v>
+                  <c:v>1.0351700078556601E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.98562553384748997</c:v>
+                  <c:v>1.43744661525091E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.97281935663048502</c:v>
+                  <c:v>2.7180643369514399E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.94185442398078401</c:v>
+                  <c:v>5.81455760192158E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.86617820054398897</c:v>
+                  <c:v>0.13382179945601</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.71078874193618002</c:v>
+                  <c:v>0.28921125806381898</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.49809943541726098</c:v>
+                  <c:v>0.50190056458273802</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1978,31 +1980,31 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>1.3678598962863201E-2</c:v>
+                  <c:v>0.98732434035015504</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.34168076689414E-2</c:v>
+                  <c:v>0.98631268954854301</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.29573103282624E-2</c:v>
+                  <c:v>0.98780134773364903</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.33874680429917E-2</c:v>
+                  <c:v>0.98675763794722304</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.3157998235590799E-2</c:v>
+                  <c:v>0.98732182365891896</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.4742875099019901E-2</c:v>
+                  <c:v>0.98560405030906195</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.96598515817441E-2</c:v>
+                  <c:v>0.97932984346288399</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>5.5289083341497E-2</c:v>
+                  <c:v>0.94581112009269896</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.14059164806341601</c:v>
+                  <c:v>0.862945540339908</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2049,31 +2051,31 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>0.99704605763526999</c:v>
+                  <c:v>2.9539423647296698E-3</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.993689722905711</c:v>
+                  <c:v>6.3102770942886598E-3</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.88101143836791596</c:v>
+                  <c:v>0.118988561632083</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.71616823804259699</c:v>
+                  <c:v>0.28383176195740201</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.57424569828806304</c:v>
+                  <c:v>0.42575430171193601</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.461807126868019</c:v>
+                  <c:v>0.53819287313198005</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.37909053546531402</c:v>
+                  <c:v>0.62090946453468499</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.31640669240296498</c:v>
+                  <c:v>0.68359330759703396</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.26929979736021997</c:v>
+                  <c:v>0.73070020263977897</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2085,31 +2087,31 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>3.3857064288685401E-3</c:v>
+                  <c:v>0.99653171552698405</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>6.7481728326666502E-3</c:v>
+                  <c:v>0.993599708239438</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.9407141441506098E-2</c:v>
+                  <c:v>0.97962757774337506</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3.43868658171778E-2</c:v>
+                  <c:v>0.96186496911537001</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>7.0968276658536694E-2</c:v>
+                  <c:v>0.932709037959775</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.11361640604389001</c:v>
+                  <c:v>0.88746601874689002</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.14177000559662301</c:v>
+                  <c:v>0.85493935180778302</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.191382547398908</c:v>
+                  <c:v>0.821025248723946</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.19436221029234901</c:v>
+                  <c:v>0.78351178367886398</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2156,7 +2158,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>0.98330293317658202</c:v>
+                  <c:v>1.6697066823417601E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2168,7 +2170,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>0.39357207433750502</c:v>
+                  <c:v>0.612816146539787</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2322,6 +2324,8 @@
         <c:axId val="422441512"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="1"/>
+          <c:min val="0.5"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -2602,7 +2606,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>0.496</c:v>
+                  <c:v>0.504</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2614,7 +2618,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>0.39742405955139298</c:v>
+                  <c:v>0.58894014216675905</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2661,13 +2665,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>0.374</c:v>
+                  <c:v>0.626</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.216</c:v>
+                  <c:v>0.78400000000000003</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>5.8999999999999997E-2</c:v>
+                  <c:v>0.94099999999999995</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2679,13 +2683,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>0.218507756710343</c:v>
+                  <c:v>0.78306249350291102</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.12840991085682499</c:v>
+                  <c:v>0.86822139692942502</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.115979218394596</c:v>
+                  <c:v>0.88463326316553403</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2732,22 +2736,22 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>0.622</c:v>
+                  <c:v>0.378</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.48299999999999998</c:v>
+                  <c:v>0.51700000000000002</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.26800000000000002</c:v>
+                  <c:v>0.73199999999999998</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.33200000000000002</c:v>
+                  <c:v>0.68399999999999905</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.19700000000000001</c:v>
+                  <c:v>0.79800000000000004</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>8.4000000000000005E-2</c:v>
+                  <c:v>0.91600000000000004</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2759,22 +2763,22 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>0.403864413879158</c:v>
+                  <c:v>0.58979009985358899</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.21795939459765801</c:v>
+                  <c:v>0.78500772397600305</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.13049057527793601</c:v>
+                  <c:v>0.86815566388038801</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.156258589592773</c:v>
+                  <c:v>0.84580447084684895</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.11493923554978699</c:v>
+                  <c:v>0.88615487973517204</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.107875538485075</c:v>
+                  <c:v>0.89098058228557697</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2821,31 +2825,31 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1E-3</c:v>
+                  <c:v>0.999</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>6.0000000000000001E-3</c:v>
+                  <c:v>0.99399999999999999</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4.0000000000000001E-3</c:v>
+                  <c:v>0.996</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.01</c:v>
+                  <c:v>0.99</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>4.8000000000000001E-2</c:v>
+                  <c:v>0.95199999999999996</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.17299999999999999</c:v>
+                  <c:v>0.82699999999999996</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.33800000000000002</c:v>
+                  <c:v>0.66199999999999903</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2857,31 +2861,31 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>1.3678598962863201E-2</c:v>
+                  <c:v>0.98732434035015504</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.34168076689414E-2</c:v>
+                  <c:v>0.98631268954854301</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.29573103282624E-2</c:v>
+                  <c:v>0.98780134773364903</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.33874680429917E-2</c:v>
+                  <c:v>0.98675763794722304</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.3157998235590799E-2</c:v>
+                  <c:v>0.98732182365891896</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.4742875099019901E-2</c:v>
+                  <c:v>0.98560405030906195</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.96598515817441E-2</c:v>
+                  <c:v>0.97932984346288399</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>5.5289083341497E-2</c:v>
+                  <c:v>0.94581112009269896</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.14059164806341601</c:v>
+                  <c:v>0.862945540339908</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2928,31 +2932,31 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>1E-3</c:v>
+                  <c:v>0.999</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1E-3</c:v>
+                  <c:v>0.999</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.4E-2</c:v>
+                  <c:v>0.97599999999999998</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>6.7000000000000004E-2</c:v>
+                  <c:v>0.93300000000000005</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.14499999999999999</c:v>
+                  <c:v>0.85499999999999998</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.224</c:v>
+                  <c:v>0.77600000000000002</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.28299999999999997</c:v>
+                  <c:v>0.71699999999999997</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.32800000000000001</c:v>
+                  <c:v>0.67199999999999904</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.34899999999999998</c:v>
+                  <c:v>0.65100000000000002</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2964,31 +2968,31 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>3.3857064288685401E-3</c:v>
+                  <c:v>0.99653171552698405</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>6.7481728326666502E-3</c:v>
+                  <c:v>0.993599708239438</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.9407141441506098E-2</c:v>
+                  <c:v>0.97962757774337506</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3.43868658171778E-2</c:v>
+                  <c:v>0.96186496911537001</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>7.0968276658536694E-2</c:v>
+                  <c:v>0.932709037959775</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.11361640604389001</c:v>
+                  <c:v>0.88746601874689002</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.14177000559662301</c:v>
+                  <c:v>0.85493935180778302</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.191382547398908</c:v>
+                  <c:v>0.821025248723946</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.19436221029234901</c:v>
+                  <c:v>0.78351178367886398</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3035,7 +3039,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3047,7 +3051,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>0.39357207433750502</c:v>
+                  <c:v>0.612816146539787</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3075,6 +3079,7 @@
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
+          <c:min val="0.2"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -3205,6 +3210,8 @@
         <c:axId val="422441512"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="1"/>
+          <c:min val="0.5"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -5507,6 +5514,9 @@
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
+  <cols>
+    <col min="1" max="1" width="11.4140625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" t="s">
@@ -5533,19 +5543,19 @@
         <v>6</v>
       </c>
       <c r="B2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C2">
-        <v>0</v>
+        <v>0.999</v>
       </c>
       <c r="D2">
-        <v>0.496</v>
+        <v>0.504</v>
       </c>
       <c r="E2">
-        <v>8.68821256274095E-3</v>
+        <v>0.99131178743725901</v>
       </c>
       <c r="F2">
-        <v>0.39742405955139298</v>
+        <v>0.58894014216675905</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -5553,19 +5563,19 @@
         <v>7</v>
       </c>
       <c r="B3">
-        <v>0.49825714285714201</v>
+        <v>0.50174285714285705</v>
       </c>
       <c r="C3">
-        <v>1E-3</v>
+        <v>0.999</v>
       </c>
       <c r="D3">
-        <v>0.374</v>
+        <v>0.626</v>
       </c>
       <c r="E3">
-        <v>8.68821256274095E-3</v>
+        <v>0.99131178743725901</v>
       </c>
       <c r="F3">
-        <v>0.218507756710343</v>
+        <v>0.78306249350291102</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -5573,19 +5583,19 @@
         <v>8</v>
       </c>
       <c r="B4">
-        <v>0.80020000000000002</v>
+        <v>0.19979999999999901</v>
       </c>
       <c r="C4">
-        <v>1E-3</v>
+        <v>0.999</v>
       </c>
       <c r="D4">
-        <v>0.216</v>
+        <v>0.78400000000000003</v>
       </c>
       <c r="E4">
-        <v>8.68821256274095E-3</v>
+        <v>0.99131178743725901</v>
       </c>
       <c r="F4">
-        <v>0.12840991085682499</v>
+        <v>0.86822139692942502</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -5593,19 +5603,19 @@
         <v>9</v>
       </c>
       <c r="B5">
-        <v>0.95185714285714196</v>
+        <v>4.8142857142857098E-2</v>
       </c>
       <c r="C5">
-        <v>2E-3</v>
+        <v>1</v>
       </c>
       <c r="D5">
-        <v>5.8999999999999997E-2</v>
+        <v>0.94099999999999995</v>
       </c>
       <c r="E5">
-        <v>8.68821256274095E-3</v>
+        <v>0.99131178743725901</v>
       </c>
       <c r="F5">
-        <v>0.115979218394596</v>
+        <v>0.88463326316553403</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -5613,19 +5623,19 @@
         <v>10</v>
       </c>
       <c r="B6">
-        <v>0.29367977756140801</v>
+        <v>0.70632022243859205</v>
       </c>
       <c r="C6">
-        <v>2E-3</v>
+        <v>0.999</v>
       </c>
       <c r="D6">
-        <v>0.622</v>
+        <v>0.378</v>
       </c>
       <c r="E6">
-        <v>8.68821256274095E-3</v>
+        <v>0.99131178743725901</v>
       </c>
       <c r="F6">
-        <v>0.403864413879158</v>
+        <v>0.58979009985358899</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -5633,19 +5643,19 @@
         <v>11</v>
       </c>
       <c r="B7">
-        <v>0.645608873536061</v>
+        <v>0.354391126463938</v>
       </c>
       <c r="C7">
-        <v>0</v>
+        <v>0.999</v>
       </c>
       <c r="D7">
-        <v>0.48299999999999998</v>
+        <v>0.51700000000000002</v>
       </c>
       <c r="E7">
-        <v>8.68821256274095E-3</v>
+        <v>0.99131178743725901</v>
       </c>
       <c r="F7">
-        <v>0.21795939459765801</v>
+        <v>0.78500772397600305</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -5653,19 +5663,19 @@
         <v>12</v>
       </c>
       <c r="B8">
-        <v>0.85887721955685004</v>
+        <v>0.14112278044314899</v>
       </c>
       <c r="C8">
-        <v>1E-3</v>
+        <v>0.999</v>
       </c>
       <c r="D8">
-        <v>0.26800000000000002</v>
+        <v>0.73199999999999998</v>
       </c>
       <c r="E8">
-        <v>8.68821256274095E-3</v>
+        <v>0.99131178743725901</v>
       </c>
       <c r="F8">
-        <v>0.13049057527793601</v>
+        <v>0.86815566388038801</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -5673,19 +5683,19 @@
         <v>13</v>
       </c>
       <c r="B9">
-        <v>0.655319197004952</v>
+        <v>0.344680802995047</v>
       </c>
       <c r="C9">
-        <v>1E-3</v>
+        <v>1</v>
       </c>
       <c r="D9">
-        <v>0.33200000000000002</v>
+        <v>0.68399999999999905</v>
       </c>
       <c r="E9">
-        <v>8.68821256274095E-3</v>
+        <v>0.99131178743725901</v>
       </c>
       <c r="F9">
-        <v>0.156258589592773</v>
+        <v>0.84580447084684895</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -5693,19 +5703,19 @@
         <v>14</v>
       </c>
       <c r="B10">
-        <v>0.82691098873935098</v>
+        <v>0.17308901126064799</v>
       </c>
       <c r="C10">
-        <v>1E-3</v>
+        <v>0.999</v>
       </c>
       <c r="D10">
-        <v>0.19700000000000001</v>
+        <v>0.79800000000000004</v>
       </c>
       <c r="E10">
-        <v>8.68821256274095E-3</v>
+        <v>0.99131178743725901</v>
       </c>
       <c r="F10">
-        <v>0.11493923554978699</v>
+        <v>0.88615487973517204</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -5713,19 +5723,19 @@
         <v>15</v>
       </c>
       <c r="B11">
-        <v>0.93093914678132395</v>
+        <v>6.9060853218675805E-2</v>
       </c>
       <c r="C11">
-        <v>0</v>
+        <v>0.999</v>
       </c>
       <c r="D11">
-        <v>8.4000000000000005E-2</v>
+        <v>0.91600000000000004</v>
       </c>
       <c r="E11">
-        <v>8.68821256274095E-3</v>
+        <v>0.99131178743725901</v>
       </c>
       <c r="F11">
-        <v>0.107875538485075</v>
+        <v>0.89098058228557697</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -5733,19 +5743,19 @@
         <v>16</v>
       </c>
       <c r="B12">
-        <v>0.99126080857444998</v>
+        <v>8.7391914255493496E-3</v>
       </c>
       <c r="C12">
-        <v>0</v>
+        <v>0.999</v>
       </c>
       <c r="D12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E12">
-        <v>8.68821256274095E-3</v>
+        <v>0.99131178743725901</v>
       </c>
       <c r="F12">
-        <v>1.3678598962863201E-2</v>
+        <v>0.98732434035015504</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -5753,19 +5763,19 @@
         <v>17</v>
       </c>
       <c r="B13">
-        <v>0.99119899310833604</v>
+        <v>8.8010068916630699E-3</v>
       </c>
       <c r="C13">
-        <v>0</v>
+        <v>0.999</v>
       </c>
       <c r="D13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E13">
-        <v>8.68821256274095E-3</v>
+        <v>0.99131178743725901</v>
       </c>
       <c r="F13">
-        <v>1.34168076689414E-2</v>
+        <v>0.98631268954854301</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -5773,19 +5783,19 @@
         <v>18</v>
       </c>
       <c r="B14">
-        <v>0.98964829992144299</v>
+        <v>1.0351700078556601E-2</v>
       </c>
       <c r="C14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D14">
-        <v>1E-3</v>
+        <v>0.999</v>
       </c>
       <c r="E14">
-        <v>8.68821256274095E-3</v>
+        <v>0.99131178743725901</v>
       </c>
       <c r="F14">
-        <v>1.29573103282624E-2</v>
+        <v>0.98780134773364903</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -5793,19 +5803,19 @@
         <v>19</v>
       </c>
       <c r="B15">
-        <v>0.98562553384748997</v>
+        <v>1.43744661525091E-2</v>
       </c>
       <c r="C15">
-        <v>2E-3</v>
+        <v>0.998</v>
       </c>
       <c r="D15">
-        <v>6.0000000000000001E-3</v>
+        <v>0.99399999999999999</v>
       </c>
       <c r="E15">
-        <v>8.68821256274095E-3</v>
+        <v>0.99131178743725901</v>
       </c>
       <c r="F15">
-        <v>1.33874680429917E-2</v>
+        <v>0.98675763794722304</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -5813,19 +5823,19 @@
         <v>20</v>
       </c>
       <c r="B16">
-        <v>0.97281935663048502</v>
+        <v>2.7180643369514399E-2</v>
       </c>
       <c r="C16">
-        <v>3.0000000000000001E-3</v>
+        <v>1</v>
       </c>
       <c r="D16">
-        <v>4.0000000000000001E-3</v>
+        <v>0.996</v>
       </c>
       <c r="E16">
-        <v>8.68821256274095E-3</v>
+        <v>0.99131178743725901</v>
       </c>
       <c r="F16">
-        <v>1.3157998235590799E-2</v>
+        <v>0.98732182365891896</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -5833,19 +5843,19 @@
         <v>21</v>
       </c>
       <c r="B17">
-        <v>0.94185442398078401</v>
+        <v>5.81455760192158E-2</v>
       </c>
       <c r="C17">
-        <v>2E-3</v>
+        <v>0.998</v>
       </c>
       <c r="D17">
-        <v>0.01</v>
+        <v>0.99</v>
       </c>
       <c r="E17">
-        <v>8.68821256274095E-3</v>
+        <v>0.99131178743725901</v>
       </c>
       <c r="F17">
-        <v>1.4742875099019901E-2</v>
+        <v>0.98560405030906195</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -5853,19 +5863,19 @@
         <v>22</v>
       </c>
       <c r="B18">
-        <v>0.86617820054398897</v>
+        <v>0.13382179945601</v>
       </c>
       <c r="C18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D18">
-        <v>4.8000000000000001E-2</v>
+        <v>0.95199999999999996</v>
       </c>
       <c r="E18">
-        <v>8.68821256274095E-3</v>
+        <v>0.99131178743725901</v>
       </c>
       <c r="F18">
-        <v>1.96598515817441E-2</v>
+        <v>0.97932984346288399</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -5873,19 +5883,19 @@
         <v>23</v>
       </c>
       <c r="B19">
-        <v>0.71078874193618002</v>
+        <v>0.28921125806381898</v>
       </c>
       <c r="C19">
-        <v>2E-3</v>
+        <v>0.999</v>
       </c>
       <c r="D19">
-        <v>0.17299999999999999</v>
+        <v>0.82699999999999996</v>
       </c>
       <c r="E19">
-        <v>8.68821256274095E-3</v>
+        <v>0.99131178743725901</v>
       </c>
       <c r="F19">
-        <v>5.5289083341497E-2</v>
+        <v>0.94581112009269896</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -5893,19 +5903,19 @@
         <v>24</v>
       </c>
       <c r="B20">
-        <v>0.49809943541726098</v>
+        <v>0.50190056458273802</v>
       </c>
       <c r="C20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D20">
-        <v>0.33800000000000002</v>
+        <v>0.66199999999999903</v>
       </c>
       <c r="E20">
-        <v>8.68821256274095E-3</v>
+        <v>0.99131178743725901</v>
       </c>
       <c r="F20">
-        <v>0.14059164806341601</v>
+        <v>0.862945540339908</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -5913,19 +5923,19 @@
         <v>25</v>
       </c>
       <c r="B21">
-        <v>0.99704605763526999</v>
+        <v>2.9539423647296698E-3</v>
       </c>
       <c r="C21">
-        <v>0</v>
+        <v>0.999</v>
       </c>
       <c r="D21">
-        <v>1E-3</v>
+        <v>0.999</v>
       </c>
       <c r="E21">
-        <v>8.68821256274095E-3</v>
+        <v>0.99131178743725901</v>
       </c>
       <c r="F21">
-        <v>3.3857064288685401E-3</v>
+        <v>0.99653171552698405</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -5933,19 +5943,19 @@
         <v>26</v>
       </c>
       <c r="B22">
-        <v>0.993689722905711</v>
+        <v>6.3102770942886598E-3</v>
       </c>
       <c r="C22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D22">
-        <v>1E-3</v>
+        <v>0.999</v>
       </c>
       <c r="E22">
-        <v>8.68821256274095E-3</v>
+        <v>0.99131178743725901</v>
       </c>
       <c r="F22">
-        <v>6.7481728326666502E-3</v>
+        <v>0.993599708239438</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -5953,19 +5963,19 @@
         <v>27</v>
       </c>
       <c r="B23">
-        <v>0.88101143836791596</v>
+        <v>0.118988561632083</v>
       </c>
       <c r="C23">
-        <v>0</v>
+        <v>0.999</v>
       </c>
       <c r="D23">
-        <v>2.4E-2</v>
+        <v>0.97599999999999998</v>
       </c>
       <c r="E23">
-        <v>8.68821256274095E-3</v>
+        <v>0.99131178743725901</v>
       </c>
       <c r="F23">
-        <v>1.9407141441506098E-2</v>
+        <v>0.97962757774337506</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -5973,19 +5983,19 @@
         <v>28</v>
       </c>
       <c r="B24">
-        <v>0.71616823804259699</v>
+        <v>0.28383176195740201</v>
       </c>
       <c r="C24">
-        <v>1E-3</v>
+        <v>0.999</v>
       </c>
       <c r="D24">
-        <v>6.7000000000000004E-2</v>
+        <v>0.93300000000000005</v>
       </c>
       <c r="E24">
-        <v>8.68821256274095E-3</v>
+        <v>0.99131178743725901</v>
       </c>
       <c r="F24">
-        <v>3.43868658171778E-2</v>
+        <v>0.96186496911537001</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -5993,19 +6003,19 @@
         <v>29</v>
       </c>
       <c r="B25">
-        <v>0.57424569828806304</v>
+        <v>0.42575430171193601</v>
       </c>
       <c r="C25">
-        <v>1E-3</v>
+        <v>0.999</v>
       </c>
       <c r="D25">
-        <v>0.14499999999999999</v>
+        <v>0.85499999999999998</v>
       </c>
       <c r="E25">
-        <v>8.68821256274095E-3</v>
+        <v>0.99131178743725901</v>
       </c>
       <c r="F25">
-        <v>7.0968276658536694E-2</v>
+        <v>0.932709037959775</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -6013,19 +6023,19 @@
         <v>30</v>
       </c>
       <c r="B26">
-        <v>0.461807126868019</v>
+        <v>0.53819287313198005</v>
       </c>
       <c r="C26">
-        <v>3.0000000000000001E-3</v>
+        <v>0.999</v>
       </c>
       <c r="D26">
-        <v>0.224</v>
+        <v>0.77600000000000002</v>
       </c>
       <c r="E26">
-        <v>8.68821256274095E-3</v>
+        <v>0.99131178743725901</v>
       </c>
       <c r="F26">
-        <v>0.11361640604389001</v>
+        <v>0.88746601874689002</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -6033,19 +6043,19 @@
         <v>31</v>
       </c>
       <c r="B27">
-        <v>0.37909053546531402</v>
+        <v>0.62090946453468499</v>
       </c>
       <c r="C27">
-        <v>1E-3</v>
+        <v>0.999</v>
       </c>
       <c r="D27">
-        <v>0.28299999999999997</v>
+        <v>0.71699999999999997</v>
       </c>
       <c r="E27">
-        <v>8.68821256274095E-3</v>
+        <v>0.99131178743725901</v>
       </c>
       <c r="F27">
-        <v>0.14177000559662301</v>
+        <v>0.85493935180778302</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -6053,19 +6063,19 @@
         <v>32</v>
       </c>
       <c r="B28">
-        <v>0.31640669240296498</v>
+        <v>0.68359330759703396</v>
       </c>
       <c r="C28">
-        <v>3.0000000000000001E-3</v>
+        <v>0.998</v>
       </c>
       <c r="D28">
-        <v>0.32800000000000001</v>
+        <v>0.67199999999999904</v>
       </c>
       <c r="E28">
-        <v>8.68821256274095E-3</v>
+        <v>0.99131178743725901</v>
       </c>
       <c r="F28">
-        <v>0.191382547398908</v>
+        <v>0.821025248723946</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -6073,19 +6083,19 @@
         <v>33</v>
       </c>
       <c r="B29">
-        <v>0.26929979736021997</v>
+        <v>0.73070020263977897</v>
       </c>
       <c r="C29">
-        <v>1E-3</v>
+        <v>0.998</v>
       </c>
       <c r="D29">
-        <v>0.34899999999999998</v>
+        <v>0.65100000000000002</v>
       </c>
       <c r="E29">
-        <v>8.68821256274095E-3</v>
+        <v>0.99131178743725901</v>
       </c>
       <c r="F29">
-        <v>0.19436221029234901</v>
+        <v>0.78351178367886398</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -6093,19 +6103,19 @@
         <v>34</v>
       </c>
       <c r="B30">
-        <v>0.98330293317658202</v>
+        <v>1.6697066823417601E-2</v>
       </c>
       <c r="C30">
-        <v>0</v>
+        <v>0.998</v>
       </c>
       <c r="D30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E30">
-        <v>8.68821256274095E-3</v>
+        <v>0.99131178743725901</v>
       </c>
       <c r="F30">
-        <v>0.39357207433750502</v>
+        <v>0.612816146539787</v>
       </c>
     </row>
   </sheetData>
